--- a/public/endpoints-to-components-mapping.xlsx
+++ b/public/endpoints-to-components-mapping.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="user and authentication usages" sheetId="1" r:id="rId1"/>
+    <sheet name="user applications usages" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="93">
   <si>
     <t>/api/auth/activate</t>
   </si>
@@ -158,9 +159,6 @@
     <t>ProfileComponent</t>
   </si>
   <si>
-    <t>src\app\pages\profile\profile.component.ts</t>
-  </si>
-  <si>
     <t>Path - src\app\pages\</t>
   </si>
   <si>
@@ -222,6 +220,90 @@
   </si>
   <si>
     <t>Used to fetch user data</t>
+  </si>
+  <si>
+    <t>/api/userApplications/{appId}/delete</t>
+  </si>
+  <si>
+    <t>/api/userApplications</t>
+  </si>
+  <si>
+    <t>/api/userApplications/byName?appName={appName}</t>
+  </si>
+  <si>
+    <t>/api/userApplications/{appId}/logs</t>
+  </si>
+  <si>
+    <t>/api/userApplications/logs/{appId}</t>
+  </si>
+  <si>
+    <t>/api/userApplications/create</t>
+  </si>
+  <si>
+    <t>/api/userApplications/{appId}/start</t>
+  </si>
+  <si>
+    <t>/api/userApplications/{appId}/stop</t>
+  </si>
+  <si>
+    <t>/api/userApplications/{appId}/changeImage</t>
+  </si>
+  <si>
+    <t>apiService.deleteApp</t>
+  </si>
+  <si>
+    <t>apiService.startApp</t>
+  </si>
+  <si>
+    <t>apiService.stopApp</t>
+  </si>
+  <si>
+    <t>apiService.getAllUserApps</t>
+  </si>
+  <si>
+    <t>apiService.getContainerLogs</t>
+  </si>
+  <si>
+    <t>apiService.downloadLogs</t>
+  </si>
+  <si>
+    <t>apiService.createNewAppContainer</t>
+  </si>
+  <si>
+    <t>apiService.getApp</t>
+  </si>
+  <si>
+    <t>apiService.updateAppContainer</t>
+  </si>
+  <si>
+    <t>my-containers</t>
+  </si>
+  <si>
+    <t>MyContainersComponent</t>
+  </si>
+  <si>
+    <t>profile\profile.component.ts</t>
+  </si>
+  <si>
+    <t>ContainerDetailsComponent</t>
+  </si>
+  <si>
+    <t>my-containers:appName</t>
+  </si>
+  <si>
+    <t>AddContainerComponent</t>
+  </si>
+  <si>
+    <t>my-containers/new</t>
+  </si>
+  <si>
+    <t>my-containers\my-containers.component.ts</t>
+  </si>
+  <si>
+    <t>container-details\container-details.component.ts</t>
+  </si>
+  <si>
+    <t>add-container\add-container.component.ts</t>
   </si>
 </sst>
 </file>
@@ -265,7 +347,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,13 +377,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,7 +424,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -346,13 +440,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -361,10 +452,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -373,7 +470,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -659,474 +763,676 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="61" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="66.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="61" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="66.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="E3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="9" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="H13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="5" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="G14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="4" t="s">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="16" t="s">
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="F21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D16:D18"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F16:F17"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D10:D12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/endpoints-to-components-mapping.xlsx
+++ b/public/endpoints-to-components-mapping.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\repha\Documents\Personal Website\run-my-docker-resources\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\repha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5724" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="user and authentication usages" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
   <si>
     <t>/api/auth/activate</t>
   </si>
@@ -458,7 +458,14 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -467,18 +474,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -809,7 +809,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -836,14 +836,14 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="19" t="s">
         <v>50</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -863,10 +863,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="5" t="s">
         <v>33</v>
       </c>
@@ -884,50 +884,50 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="21" t="s">
         <v>57</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
@@ -937,94 +937,94 @@
       <c r="G7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="20" t="s">
         <v>62</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="21" t="s">
         <v>58</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="5" t="s">
         <v>26</v>
       </c>
@@ -1034,18 +1034,18 @@
       <c r="G12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="22" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -1065,10 +1065,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="17"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="6" t="s">
         <v>31</v>
       </c>
@@ -1086,7 +1086,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="9" t="s">
         <v>6</v>
       </c>
@@ -1113,46 +1113,46 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="19" t="s">
         <v>64</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="19" t="s">
         <v>48</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="7"/>
       <c r="F18" s="14" t="s">
         <v>41</v>
@@ -1164,7 +1164,7 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="9" t="s">
         <v>8</v>
       </c>
@@ -1180,7 +1180,7 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="12" t="s">
         <v>9</v>
       </c>
@@ -1194,7 +1194,7 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="10" t="s">
         <v>10</v>
       </c>
@@ -1218,17 +1218,12 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B16:B18"/>
@@ -1244,12 +1239,17 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1261,7 +1261,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1295,143 +1295,139 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="23"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="23"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="23"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="21" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>90</v>
+      <c r="F6" s="24" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>91</v>
-      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="23"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="23"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="17" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
